--- a/output/fit_clients/fit_round_33.xlsx
+++ b/output/fit_clients/fit_round_33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>5757830311.640368</v>
+        <v>9506351399.144403</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2160901212188611</v>
+        <v>0.1314330785323646</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.463152583904915</v>
+        <v>0.1598370036104639</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1118476600981973</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.822068400454809</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7541780601248687</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.261492802042564</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>8915395226.243944</v>
+        <v>7751034607.608362</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.163061918525004</v>
+        <v>0.2031023559686759</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2635322939756782</v>
+        <v>0.3392974730572373</v>
       </c>
       <c r="I3" t="n">
-        <v>1.543338603250545</v>
+        <v>14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9885145944080594</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5319751720909504</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.822119565398875</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8680187659903351</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.53825575440783</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>4656076750.130713</v>
+        <v>12419677499.79239</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3189797354518061</v>
+        <v>0.1054532213112533</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8504720399774305</v>
+        <v>0.09478322408542331</v>
       </c>
       <c r="I4" t="n">
-        <v>1.57670808656407</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.697937866979235</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7657265023498812</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.616592180018388</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>4045546234.437833</v>
+        <v>11332121486.6132</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3587011434073129</v>
+        <v>0.09500156623556913</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.06861219245970568</v>
       </c>
       <c r="I5" t="n">
-        <v>1.540557812974418</v>
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1108747270604266</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.487469880293078</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.3540371220648762</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-9.568212321590602</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>11285916606.70528</v>
+        <v>7685750864.961144</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.10838775197694</v>
+        <v>0.1751769584593225</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05771590904230284</v>
+        <v>0.2693720443968216</v>
       </c>
       <c r="I6" t="n">
-        <v>1.298629058951359</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.774046502287293</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7725616663201044</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.677186824114795</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>3679581647.918234</v>
+        <v>12567776979.4612</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.319630388053869</v>
+        <v>0.127553717942306</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8529213679664792</v>
+        <v>0.1501230522836364</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08152890496882113</v>
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3927528687266489</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.682897262034573</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5234755823273067</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.786614384511561</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>7249590305.619662</v>
+        <v>9467810956.859949</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.211008304678156</v>
+        <v>0.1272648350806973</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4440225051979433</v>
+        <v>0.1493996871847557</v>
       </c>
       <c r="I8" t="n">
-        <v>1.623981521258231</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.678271490827047</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7453693155135902</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.229114819444757</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>4894297084.384753</v>
+        <v>13355357975.56998</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2376253709057791</v>
+        <v>0.09983030873742629</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5442202529530132</v>
+        <v>0.08070340402509289</v>
       </c>
       <c r="I9" t="n">
-        <v>1.234670882600436</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.983486712141191</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7701367672222554</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.419248632303917</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>8159617830.31384</v>
+        <v>11929441324.46225</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1775233473090597</v>
+        <v>0.1146174026772068</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.317971148396792</v>
+        <v>0.1177304107860406</v>
       </c>
       <c r="I10" t="n">
-        <v>1.53777702269829</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.657225653571016</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7764049617712456</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.870873581853896</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>5302602212.90044</v>
+        <v>4640868041.948416</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2030265984087714</v>
+        <v>0.3267980895581037</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4139760310825921</v>
+        <v>0.6490326233557503</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08508296583462351</v>
+        <v>13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9846093718031353</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4385286486512144</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.815123801883866</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8629534029054797</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.44394425622573</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>4739489008.734176</v>
+        <v>13373097500.11557</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2674939761783729</v>
+        <v>0.0951928706112401</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6566581509281566</v>
+        <v>0.06909122021459888</v>
       </c>
       <c r="I12" t="n">
-        <v>1.34590249364552</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.729699489454973</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7587459313040649</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.445219136626324</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>5060401310.242302</v>
+        <v>7274984412.70454</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2448366036686279</v>
+        <v>0.1969497456926291</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5713663431793348</v>
+        <v>0.3238912855252979</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08424734835921076</v>
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9885298790216287</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.221450654460546</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.695089316950753</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8537418682338669</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.37974804772658</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>7397456360.008375</v>
+        <v>7538227215.296321</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1873153747132658</v>
+        <v>0.2137007553621049</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3548324269263978</v>
+        <v>0.365835953680533</v>
       </c>
       <c r="I14" t="n">
-        <v>1.47103805607124</v>
+        <v>14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3712949447311656</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.66143933803909</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5270419349073777</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.879399360108465</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>7960423430.448932</v>
+        <v>3571280120.142128</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1845979429158492</v>
+        <v>0.2750473827185833</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3446028793327345</v>
+        <v>0.519448421088946</v>
       </c>
       <c r="I15" t="n">
-        <v>1.560023344907307</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.164996641035846</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.675302275783881</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.341048874641774</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>9328353867.181017</v>
+        <v>8438164708.833858</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1676368470005915</v>
+        <v>0.1580046794540771</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2807542344207403</v>
+        <v>0.2263725143054114</v>
       </c>
       <c r="I16" t="n">
-        <v>1.660131794847883</v>
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4056425542434706</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.989273874529567</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5235460757338494</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7.48164764014742</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>6624149666.830447</v>
+        <v>10566635447.26938</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1751756570070417</v>
+        <v>0.1358451067194659</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3091334621290058</v>
+        <v>0.1708847590503484</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08400316015890388</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.978972404400924</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7885987079542905</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.793001754684887</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>5307905529.593706</v>
+        <v>12018189312.89932</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2299656113309601</v>
+        <v>0.09132194388234581</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5153857205827367</v>
+        <v>0.05939838734658573</v>
       </c>
       <c r="I18" t="n">
-        <v>1.295848268675232</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.72973367574933</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7230616765825879</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.731499855902427</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>5614605418.879093</v>
+        <v>11298962141.25893</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2341987872520016</v>
+        <v>0.1159128585109211</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5313211617584124</v>
+        <v>0.1209742430162808</v>
       </c>
       <c r="I19" t="n">
-        <v>1.395956718615808</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9.070173320919196</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7657265023498812</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.244356726078427</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>7081251047.440592</v>
+        <v>7411770868.392443</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2163944110629776</v>
+        <v>0.1996763494553349</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4642980578945906</v>
+        <v>0.3307187241259639</v>
       </c>
       <c r="I20" t="n">
-        <v>1.626762311534358</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.314828051556782</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7963396647439875</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.611965243322969</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>8784394047.929592</v>
+        <v>8574914893.23945</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1610208504174945</v>
+        <v>0.1151626625214162</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2558488616380106</v>
+        <v>0.1190957459912023</v>
       </c>
       <c r="I21" t="n">
-        <v>1.501626749108638</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.364288365070987</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5299372553752646</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.234456742434304</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>9161529486.038177</v>
+        <v>4940264165.404841</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1566797031202633</v>
+        <v>0.3202483727649714</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2395069711330322</v>
+        <v>0.632632077787484</v>
       </c>
       <c r="I22" t="n">
-        <v>1.523873071317655</v>
+        <v>15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9882605601892326</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3541273600716932</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.566617040511598</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8572871079582896</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.57912511865419</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>7778613305.991473</v>
+        <v>6429939892.498981</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1609629339763676</v>
+        <v>0.2191671840733655</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2556308399781748</v>
+        <v>0.3795239368416849</v>
       </c>
       <c r="I23" t="n">
-        <v>1.329217751988757</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.040841036167617</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7839610936625553</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.638380837083488</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>4415218727.937116</v>
+        <v>3820450882.440605</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3114635615442122</v>
+        <v>0.3901196366246363</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8221780239940023</v>
+        <v>0.8075903062171995</v>
       </c>
       <c r="I24" t="n">
-        <v>1.459914894966731</v>
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3153889291167583</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.789027591606965</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5523712383767336</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.258397175927707</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>9101089106.170185</v>
+        <v>9967743119.791771</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1453443576443174</v>
+        <v>0.1295538272285429</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.196835999170814</v>
+        <v>0.1551313426458756</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09995785081129507</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.901767311603416</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7622548620277713</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.343329928952009</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>4143618500.10994</v>
+        <v>8274301790.796091</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2642388578897767</v>
+        <v>0.187092461592588</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6444045269410321</v>
+        <v>0.2992085637881408</v>
       </c>
       <c r="I26" t="n">
-        <v>1.162370335421131</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.54073197726261</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.444012682877875</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.339521680294892</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>10869948400.21276</v>
+        <v>10974608998.22159</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1347052401804723</v>
+        <v>0.1401035727331299</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1567859200650784</v>
+        <v>0.1815479935250423</v>
       </c>
       <c r="I27" t="n">
-        <v>1.554461764355053</v>
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9876523887794233</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3283305654000112</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.244402834271884</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.769063131236697</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.13685979046206</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>5364600595.503799</v>
+        <v>13960533590.08445</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2148401506285416</v>
+        <v>0.1084491083546644</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4584471728412376</v>
+        <v>0.1022849502706472</v>
       </c>
       <c r="I28" t="n">
-        <v>1.223547721495927</v>
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.353521968595952</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.643666361903876</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4783734090846176</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.923801819788475</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>5237530283.343643</v>
+        <v>10705465891.57104</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2605621573855174</v>
+        <v>0.1512108895022075</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6305638915176439</v>
+        <v>0.2093608075086078</v>
       </c>
       <c r="I29" t="n">
-        <v>1.448791733862223</v>
+        <v>14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9852516663948792</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3136887653286013</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.603833158636526</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8787529123183498</v>
+      </c>
+      <c r="N29" t="n">
+        <v>14.97122508773047</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>9665735399.120081</v>
+        <v>9223411711.452465</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1593465221632502</v>
+        <v>0.1354649525672363</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2495459911922869</v>
+        <v>0.1699328498772458</v>
       </c>
       <c r="I30" t="n">
-        <v>0.07762741392697695</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.657852535131651</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7541780601248687</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.425708667365722</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>8718523195.127308</v>
+        <v>4485736871.534936</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1688470796089342</v>
+        <v>0.2189765646382832</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2853100551328607</v>
+        <v>0.3790466241837478</v>
       </c>
       <c r="I31" t="n">
-        <v>1.562804135183434</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.550468541078098</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.6257546550357838</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.964624559637576</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>10126924324.43399</v>
+        <v>11423562332.09427</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1158778995877988</v>
+        <v>0.09103095862473894</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.08591195118094461</v>
+        <v>0.05866975783056158</v>
       </c>
       <c r="I32" t="n">
-        <v>1.245794043704944</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.176535868045246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5125696051893835</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.074856235742425</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>8891392318.205637</v>
+        <v>11636163704.18313</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1234367319224859</v>
+        <v>0.1168308941469499</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1143665512903978</v>
+        <v>0.1232730119184371</v>
       </c>
       <c r="I33" t="n">
-        <v>1.165151125697258</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.767028618487878</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7749689348237895</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.732350077987912</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>8077083542.713962</v>
+        <v>9226423640.182287</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.174148555299871</v>
+        <v>0.1203739827383492</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3052670225712497</v>
+        <v>0.1321449353513065</v>
       </c>
       <c r="I34" t="n">
-        <v>1.493284378280257</v>
+        <v>8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9805000227821745</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2844914729048458</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.314067738465677</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.807846874838234</v>
+      </c>
+      <c r="N34" t="n">
+        <v>12.842869758299</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>7057817693.738848</v>
+        <v>5193036938.332842</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1759171055241968</v>
+        <v>0.3081910082684302</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3119245838424189</v>
+        <v>0.6024403363573708</v>
       </c>
       <c r="I35" t="n">
-        <v>0.09560730187381056</v>
+        <v>16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9893090491531306</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4105605781073672</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.552794499607248</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8499223978000857</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.44565345639447</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>7950617088.402394</v>
+        <v>9017001052.873764</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.194379893134879</v>
+        <v>0.1344989939436107</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3814262231309262</v>
+        <v>0.1675140814137846</v>
       </c>
       <c r="I36" t="n">
-        <v>1.640666262914993</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.713678656078816</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7469414728326998</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.225150800575181</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>4047799370.242544</v>
+        <v>3650225220.677537</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2970255934221261</v>
+        <v>0.2712515968579651</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7678274852974727</v>
+        <v>0.5099437415828452</v>
       </c>
       <c r="I37" t="n">
-        <v>1.276382736742342</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.760214953480205</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5678400031994247</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7.596585110508289</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>9507309436.227177</v>
+        <v>8875855231.864943</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1126849312296224</v>
+        <v>0.1419498805564984</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07389228547449427</v>
+        <v>0.1861711637393563</v>
       </c>
       <c r="I38" t="n">
-        <v>1.137343222935987</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.75419893527005</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7562161757394344</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.370124579518638</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>5924139659.905427</v>
+        <v>9922121297.680233</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1967591273867112</v>
+        <v>0.1512691112081959</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3903826539928634</v>
+        <v>0.2095065951468041</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09600056381832069</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.448541266688135</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.799922490267698</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.549908538665825</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>9926787405.150991</v>
+        <v>10402272866.06925</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1403793012910609</v>
+        <v>0.1337107868547562</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1781454545473422</v>
+        <v>0.1655404042783788</v>
       </c>
       <c r="I40" t="n">
-        <v>1.479380426899621</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.969893563008712</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7806762724740713</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.643631886472715</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>8873467469.044044</v>
+        <v>10194817723.4797</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1443496259459428</v>
+        <v>0.1151061992307465</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1930914138380298</v>
+        <v>0.1189543614396546</v>
       </c>
       <c r="I41" t="n">
-        <v>1.359806445026156</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.81952380382314</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7390019789495805</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5.960515775168471</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>6490048367.953773</v>
+        <v>8206956789.961988</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1876744641864702</v>
+        <v>0.1378801556971815</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3561841895943772</v>
+        <v>0.1759805386919468</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1016725224722767</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.770905880300266</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7303078207843245</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.835250535386226</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>6754340634.174848</v>
+        <v>3937532826.858906</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1888626883201073</v>
+        <v>0.2514593435884717</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3606571612209457</v>
+        <v>0.4603837740457212</v>
       </c>
       <c r="I43" t="n">
-        <v>1.354244864473901</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.07489318467114</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6537753614446991</v>
+      </c>
+      <c r="N43" t="n">
+        <v>8.000614044222841</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>4586742192.944957</v>
+        <v>6506290415.164131</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3283701561244636</v>
+        <v>0.2371275506553115</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8858215031311296</v>
+        <v>0.4244968448090692</v>
       </c>
       <c r="I44" t="n">
-        <v>1.598954408773087</v>
+        <v>22</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3380179629774187</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.164921189637671</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.5627143000008019</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-13.41920718965371</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>10666319988.42869</v>
+        <v>14569254040.57591</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1468543247998651</v>
+        <v>0.06760062232816061</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2025201458335669</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.66291258512401</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.518564046553857</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6265436272823767</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8.012308499093676</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>8961645170.296076</v>
+        <v>5316744883.116339</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1198384760378232</v>
+        <v>0.2926447843944733</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1008212141594605</v>
+        <v>0.5635124618992504</v>
       </c>
       <c r="I46" t="n">
-        <v>1.140124013212114</v>
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3153128725854056</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.60545726589333</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.5007810383687112</v>
+      </c>
+      <c r="N46" t="n">
+        <v>7.410163501480895</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>8061641313.190103</v>
+        <v>3429490630.83297</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1543370886477271</v>
+        <v>0.3200254872057862</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.230688392406164</v>
+        <v>0.6320739704852325</v>
       </c>
       <c r="I47" t="n">
-        <v>1.320875381160376</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.817240107571182</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7230616765825879</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.643993424080575</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>4763231273.344597</v>
+        <v>8405090867.828719</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3217024456853709</v>
+        <v>0.1816880262229093</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8607214578080761</v>
+        <v>0.2856758124722207</v>
       </c>
       <c r="I48" t="n">
-        <v>1.626762311534358</v>
+        <v>14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9865318645273634</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2413188593441279</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.531463252652052</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8537948993509015</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14.54443473436598</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>5496019602.559845</v>
+        <v>10986189527.36949</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.209702963843723</v>
+        <v>0.102761479509112</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4391086574228201</v>
+        <v>0.08804308012525765</v>
       </c>
       <c r="I49" t="n">
-        <v>1.223547721495927</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.908147094762658</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7297563632552384</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.68698017034211</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>6805637963.621386</v>
+        <v>12109406008.83154</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2036043229755745</v>
+        <v>0.112697698714925</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4161508275053615</v>
+        <v>0.112923456026715</v>
       </c>
       <c r="I50" t="n">
-        <v>1.47103805607124</v>
+        <v>11</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9842443430174489</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2809736323521198</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.864604952638217</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8454128200837051</v>
+      </c>
+      <c r="N50" t="n">
+        <v>14.04365144903588</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>9239060115.866819</v>
+        <v>5850037042.002432</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1352355125229938</v>
+        <v>0.2301466555396625</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1587820865081825</v>
+        <v>0.4070166251190307</v>
       </c>
       <c r="I51" t="n">
-        <v>1.32643696171263</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.675947916929816</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7725616663201044</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.775285409472271</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>9028164734.162176</v>
+        <v>14133293091.91602</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1552224279534094</v>
+        <v>0.07932326264720627</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2340211791103704</v>
+        <v>0.02935358929327977</v>
       </c>
       <c r="I52" t="n">
-        <v>1.487722797728002</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.592275819423191</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7084213629319484</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.576151439215777</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>10071482816.22932</v>
+        <v>5214004242.216487</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1183363434905019</v>
+        <v>0.2652544677278718</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.09516656023238798</v>
+        <v>0.4949268801393086</v>
       </c>
       <c r="I53" t="n">
-        <v>1.265259575637834</v>
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.986765305477844</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2806469267232855</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2.754285589213493</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8383301818860407</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.01231804850732</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>10761865269.24064</v>
+        <v>8616532961.733082</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1345977331773648</v>
+        <v>0.1848294583300329</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1563812188298952</v>
+        <v>0.2935419847129072</v>
       </c>
       <c r="I54" t="n">
-        <v>1.53777702269829</v>
+        <v>14</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.988012982357346</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.303764787099595</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.593909180407519</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8728581244860188</v>
+      </c>
+      <c r="N54" t="n">
+        <v>14.86325330931286</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>5889098070.183008</v>
+        <v>7101034327.91591</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2521938185270952</v>
+        <v>0.1862815878526006</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.599061970949292</v>
+        <v>0.2971781291689342</v>
       </c>
       <c r="I55" t="n">
-        <v>1.57670808656407</v>
+        <v>10</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3116954178698987</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.021430806995488</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.557294308167103</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.124455356346573</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>6094674233.821466</v>
+        <v>11409417002.7619</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2518530902737933</v>
+        <v>0.1097399121880556</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5977793275773515</v>
+        <v>0.1055171338532143</v>
       </c>
       <c r="I56" t="n">
-        <v>1.629543101810485</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.83954802013225</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7546887937822575</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.2542278555129</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>10519246953.41072</v>
+        <v>6693825220.718266</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1038368653989858</v>
+        <v>0.1471342031685611</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.04058447233548198</v>
+        <v>0.1991527508713192</v>
       </c>
       <c r="I57" t="n">
-        <v>1.159589545145004</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.302899240617204</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6759629467088467</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.216359693559729</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>5666197839.837153</v>
+        <v>12596581754.70223</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2010933402270238</v>
+        <v>0.1285097061665731</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4066984403074247</v>
+        <v>0.1525168547838085</v>
       </c>
       <c r="I58" t="n">
-        <v>1.209643770115292</v>
+        <v>13</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9870627099758966</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4666436742564349</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.843238827489087</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8916233712433201</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14.98922859737731</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>9355069663.234043</v>
+        <v>3382497673.728476</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1455983599302379</v>
+        <v>0.4669603122768596</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1977921698004482</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1.446010943586096</v>
+        <v>14</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9882668605577781</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.395069480358284</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.685213873666208</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8693621908449465</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14.70202994323272</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>8470634845.942741</v>
+        <v>11320833061.98385</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1812098582829615</v>
+        <v>0.08977460531706669</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3318487145229932</v>
+        <v>0.05552383865220475</v>
       </c>
       <c r="I60" t="n">
-        <v>1.629543101810485</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.610329437794357</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7050625283952737</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.490921130111117</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>11372033626.36375</v>
+        <v>10777608477.29177</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09305578885615505</v>
+        <v>0.09308432126791209</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.06381139504346339</v>
       </c>
       <c r="I61" t="n">
-        <v>1.123439271555351</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.648677018201624</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7020570754989893</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.392464491778162</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>10471384996.18398</v>
+        <v>11545369674.79547</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1438347697605309</v>
+        <v>0.1320429767899145</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1911532802452861</v>
+        <v>0.1613641939426386</v>
       </c>
       <c r="I62" t="n">
-        <v>1.598954408773087</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9.281664460876375</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8039089198593198</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.796513936310021</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>8113292842.44074</v>
+        <v>8473122936.738115</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1811197769558055</v>
+        <v>0.1842480572577407</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.331509610805903</v>
+        <v>0.2920861515706915</v>
       </c>
       <c r="I63" t="n">
-        <v>1.560023344907307</v>
+        <v>13</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.52131875608812</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.897913909320772</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.5444675498656067</v>
+      </c>
+      <c r="N63" t="n">
+        <v>7.991437087991364</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>10822760876.4135</v>
+        <v>6592443159.117489</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1263375949643184</v>
+        <v>0.1891301312587896</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1252866106557642</v>
+        <v>0.3043109056556019</v>
       </c>
       <c r="I64" t="n">
-        <v>1.45157252413835</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.953696631536115</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7536665181557503</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.11963373157889</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>11212156401.91633</v>
+        <v>9407438147.221098</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1076990675757621</v>
+        <v>0.1066418247242314</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.05512341348618244</v>
+        <v>0.09775949696146324</v>
       </c>
       <c r="I65" t="n">
-        <v>1.281944317294597</v>
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.04687357274502063</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.331341415744782</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6320026181482065</v>
+      </c>
+      <c r="N65" t="n">
+        <v>8.308710947219346</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>4167039831.014341</v>
+        <v>3648672348.988936</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2954407324924279</v>
+        <v>0.3338245349263871</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.7618614072067188</v>
+        <v>0.6666269012589257</v>
       </c>
       <c r="I66" t="n">
-        <v>1.30697142977974</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9.129459622151877</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7479853034979247</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5.830246447806616</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>10565515938.55761</v>
+        <v>11193418536.58729</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.113794727772105</v>
+        <v>0.09009447352510651</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.07807002291077553</v>
+        <v>0.05632479131740967</v>
       </c>
       <c r="I67" t="n">
-        <v>1.276382736742342</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.425002821512608</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5390678842101713</v>
+      </c>
+      <c r="N67" t="n">
+        <v>7.356354862690816</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>10167128687.75727</v>
+        <v>7330372661.334844</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1149044116464016</v>
+        <v>0.1833122451042355</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08224733621697466</v>
+        <v>0.2897428701202642</v>
       </c>
       <c r="I68" t="n">
-        <v>1.24023246315269</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.019810189997018</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.565437857562651</v>
+      </c>
+      <c r="N68" t="n">
+        <v>8.288946961256002</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>9243210665.148172</v>
+        <v>11391104008.67946</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1541616015929198</v>
+        <v>0.1080767324275111</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2300277858802046</v>
+        <v>0.1013525178381174</v>
       </c>
       <c r="I69" t="n">
-        <v>1.512749910213146</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.650077328134698</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7505801160735275</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.361524993335852</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>6652194522.403434</v>
+        <v>8052381632.87499</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1996379879643362</v>
+        <v>0.1310934103880901</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4012198868987021</v>
+        <v>0.1589864717395129</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0928732229064171</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.634830904342145</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7139040586139562</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.643250267936979</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>6724211304.889136</v>
+        <v>7868788003.489505</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1624407057532242</v>
+        <v>0.1907422679749923</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2611937897965653</v>
+        <v>0.3083477094612385</v>
       </c>
       <c r="I71" t="n">
-        <v>1.159589545145004</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.447042670370221</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.799922490267698</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.551407134983739</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>10159197177.8101</v>
+        <v>7890184325.915225</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1204086414103523</v>
+        <v>0.1766138055131378</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1029675546196299</v>
+        <v>0.2729699214234187</v>
       </c>
       <c r="I72" t="n">
-        <v>0.08567021209256871</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.887686296462544</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.78114750857475</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.735263875032457</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>7430904894.527527</v>
+        <v>6179829550.019608</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1794222276996013</v>
+        <v>0.2420247480766285</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3251193268159104</v>
+        <v>0.4367594680646764</v>
       </c>
       <c r="I73" t="n">
-        <v>1.415422250548698</v>
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4909339833661079</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.867529136598759</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.5153650769651131</v>
+      </c>
+      <c r="N73" t="n">
+        <v>7.439772402703503</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>9936893598.935663</v>
+        <v>12893576151.75136</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1194119327318846</v>
+        <v>0.07882400569387032</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.09921552710854535</v>
+        <v>0.02810344571118695</v>
       </c>
       <c r="I74" t="n">
-        <v>1.25969799508558</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.116513362687034</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6608199985425853</v>
+      </c>
+      <c r="N74" t="n">
+        <v>8.099886608164674</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>10236119323.12047</v>
+        <v>4049249816.154752</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1453493724559711</v>
+        <v>0.2561655830326172</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1968548770151572</v>
+        <v>0.4721682369311718</v>
       </c>
       <c r="I75" t="n">
-        <v>1.579488876840197</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.741629365911203</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7098099781960905</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.454570198010606</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>7998293410.751978</v>
+        <v>8222909274.361215</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1454071637877882</v>
+        <v>0.1920843484099733</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.197072427711328</v>
+        <v>0.311708290082566</v>
       </c>
       <c r="I76" t="n">
-        <v>0.09928734620673389</v>
+        <v>13</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9855216929162754</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2652827994275678</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.641877952660219</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8805807016714008</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14.9697360807678</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>5055510839.029344</v>
+        <v>7419854231.101534</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2694253545031504</v>
+        <v>0.1620382250853881</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6639286651369999</v>
+        <v>0.2364725462636423</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1116276984870206</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.706374866500333</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7448435397375681</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.190495928251028</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>8277031946.589534</v>
+        <v>12386901906.04369</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1512702171598966</v>
+        <v>0.09685074033036981</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2191434079549492</v>
+        <v>0.07324253984163152</v>
       </c>
       <c r="I78" t="n">
-        <v>0.06744566443213436</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.632222938896417</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7443168965423259</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.254114991950102</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>9294878072.113361</v>
+        <v>6815208241.648512</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1197692687696423</v>
+        <v>0.2048557902410173</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1005606891135858</v>
+        <v>0.3436880871238864</v>
       </c>
       <c r="I79" t="n">
-        <v>1.181835867354021</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.934109011935877</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7816180822909564</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.69825263388325</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>7954029218.790207</v>
+        <v>13534368367.11343</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1521440450760706</v>
+        <v>0.1087673351330517</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2224328609839717</v>
+        <v>0.1030817927822893</v>
       </c>
       <c r="I80" t="n">
-        <v>1.284725107570724</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>9.090891572616467</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7949863576611604</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6.808835580606742</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>7907039155.747974</v>
+        <v>6433390901.214938</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1404598280245824</v>
+        <v>0.1575691490794634</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1784485907857212</v>
+        <v>0.2252819426088296</v>
       </c>
       <c r="I81" t="n">
-        <v>1.179055077077894</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.445332919659868</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.5412950188450524</v>
+      </c>
+      <c r="N81" t="n">
+        <v>7.38056745724118</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>9363829576.654772</v>
+        <v>6656646092.364622</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1225238894629552</v>
+        <v>0.1951759823149142</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1109302312347616</v>
+        <v>0.3194497672089581</v>
       </c>
       <c r="I82" t="n">
-        <v>0.09862534033743536</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.877767172482899</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.5074006210657859</v>
+      </c>
+      <c r="N82" t="n">
+        <v>7.270245248832819</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>10499793529.5531</v>
+        <v>8468436638.710015</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.109018660869679</v>
+        <v>0.1756892781365412</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.06009091346805334</v>
+        <v>0.2706548971486468</v>
       </c>
       <c r="I83" t="n">
-        <v>1.215205350667546</v>
+        <v>17</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9902598756763893</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.3853479951347295</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.463620167634762</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8009403572106543</v>
+      </c>
+      <c r="N83" t="n">
+        <v>13.55518697657832</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>4964850643.02801</v>
+        <v>4564898073.325271</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2775106924786955</v>
+        <v>0.3471558235353134</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6943652522522025</v>
+        <v>0.7000085593091881</v>
       </c>
       <c r="I84" t="n">
-        <v>1.462695685242859</v>
+        <v>23</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9902202197647163</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3759979434056155</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.162744547064563</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7359871308461708</v>
+      </c>
+      <c r="N84" t="n">
+        <v>12.55699806985885</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>4175909096.549644</v>
+        <v>4661604961.651168</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3029676510547957</v>
+        <v>0.2697155186557581</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.790195870555741</v>
+        <v>0.5060973889316691</v>
       </c>
       <c r="I85" t="n">
-        <v>1.343121703369393</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.659131677511372</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7557078485227176</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.455025292942979</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>10707560062.42029</v>
+        <v>4914613818.545932</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1257397999311968</v>
+        <v>0.313925115372843</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1230362606199744</v>
+        <v>0.6167985884512399</v>
       </c>
       <c r="I86" t="n">
-        <v>1.429326201929333</v>
+        <v>13</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4110601237850071</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.787655277017659</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.5366860662045323</v>
+      </c>
+      <c r="N86" t="n">
+        <v>7.946066047072986</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>10873847804.68125</v>
+        <v>11006592931.98805</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.09996892264135063</v>
+        <v>0.1413623334318192</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02602392124219981</v>
+        <v>0.1846999408306179</v>
       </c>
       <c r="I87" t="n">
-        <v>1.15402796459275</v>
+        <v>15</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9883605362067553</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.3042585647697038</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.516748245209609</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8497636449859951</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.47852465451029</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>10709594993.20381</v>
+        <v>9033565751.450882</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1098179819821705</v>
+        <v>0.128163165227867</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.06309989178744481</v>
+        <v>0.1516491133781833</v>
       </c>
       <c r="I88" t="n">
-        <v>1.248574833981071</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.816953314506682</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7357697238800762</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5.898441163094843</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>4663356557.858958</v>
+        <v>4124915498.959125</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2859034031513411</v>
+        <v>0.3670396206618153</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.7259589185025539</v>
+        <v>0.7497977534290456</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1157671446515071</v>
+        <v>12</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9880916168364707</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3232901953961786</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2.796928857886385</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8763008250858572</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14.72908764383076</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>5431081696.405175</v>
+        <v>6471578566.195729</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2199270618209627</v>
+        <v>0.1744484870966574</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4775964299438741</v>
+        <v>0.2675479460188439</v>
       </c>
       <c r="I90" t="n">
-        <v>1.268040365913961</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>9.084596531368328</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7297563632552384</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.51053073373644</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>9654152688.364067</v>
+        <v>4038211554.333383</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1305061801558785</v>
+        <v>0.2944875581676429</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1409789053642619</v>
+        <v>0.568126782822342</v>
       </c>
       <c r="I91" t="n">
-        <v>1.337560122817139</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.606723412855889</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7422015795610584</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.237308178365279</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>8429412196.333241</v>
+        <v>10009830525.99154</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1705985039651452</v>
+        <v>0.09917738441447406</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2919031474877798</v>
+        <v>0.07906847606569843</v>
       </c>
       <c r="I92" t="n">
-        <v>1.526653861593782</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.62711761619374</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5688290883725085</v>
+      </c>
+      <c r="N92" t="n">
+        <v>7.749464151256429</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>7688767740.489071</v>
+        <v>10217648252.00891</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1638658667454894</v>
+        <v>0.1015183156061434</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2665586906610024</v>
+        <v>0.08493018732646694</v>
       </c>
       <c r="I93" t="n">
-        <v>0.08737084317637626</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.990305578106687</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7098099781960905</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.205893985815122</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>6581162780.224216</v>
+        <v>7421052265.087643</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1806980164012118</v>
+        <v>0.1807193416908459</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.329921928027462</v>
+        <v>0.2832502183112581</v>
       </c>
       <c r="I94" t="n">
-        <v>1.262478785361707</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>9.050109098042203</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7715938398984236</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.381767699926268</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>5909543922.15163</v>
+        <v>3713576678.016325</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2584132363033508</v>
+        <v>0.3554989365953242</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.6224744555634656</v>
+        <v>0.7208997841122785</v>
       </c>
       <c r="I95" t="n">
-        <v>1.621200730982103</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>9.036691619885328</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7676939206221413</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.317186792557496</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>8689470821.642481</v>
+        <v>5220590198.040175</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.17935925926792</v>
+        <v>0.2900069460668188</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3248822873548301</v>
+        <v>0.5569072926895254</v>
       </c>
       <c r="I96" t="n">
-        <v>1.654570214295629</v>
+        <v>14</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2872173311530527</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.577361724460977</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.4783734090846176</v>
+      </c>
+      <c r="N96" t="n">
+        <v>6.990106457231375</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>7597164916.697144</v>
+        <v>12609908298.46864</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2065263328102303</v>
+        <v>0.1204803527543891</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4271504922259922</v>
+        <v>0.1324112867601166</v>
       </c>
       <c r="I97" t="n">
-        <v>1.665693375400137</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.467614638482921</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.1837712072444834</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-6.143038783372589</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>8885123599.467155</v>
+        <v>7371026742.015812</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1202809514168257</v>
+        <v>0.150318538892858</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1024868761837414</v>
+        <v>0.2071263541278369</v>
       </c>
       <c r="I98" t="n">
-        <v>0.05814031559577411</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.695981255639989</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7253092810050825</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5.810204364461661</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>7703469186.122209</v>
+        <v>4868052892.347987</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1812345628012812</v>
+        <v>0.2243783406127214</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3319417126420885</v>
+        <v>0.3925727163517683</v>
       </c>
       <c r="I99" t="n">
-        <v>0.08259243719345334</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.763087398603696</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7219317345887791</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.675547293171887</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>5922512073.028015</v>
+        <v>8880294457.149452</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1968131994712924</v>
+        <v>0.1480732183313311</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3905862038899527</v>
+        <v>0.2015040526837044</v>
       </c>
       <c r="I100" t="n">
-        <v>1.237451672876563</v>
+        <v>12</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9884404068147323</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2100786808432215</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2.683717343333428</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8179385718164675</v>
+      </c>
+      <c r="N100" t="n">
+        <v>13.67505409299592</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>11609888917.11426</v>
+        <v>5807842565.954695</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1464255275943283</v>
+        <v>0.2724095121438492</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.200905974163743</v>
+        <v>0.5128431711322643</v>
       </c>
       <c r="I101" t="n">
-        <v>1.804732889206493</v>
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3839825516771457</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.596472232117051</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.4656313721500526</v>
+      </c>
+      <c r="N101" t="n">
+        <v>6.716155210884001</v>
       </c>
     </row>
   </sheetData>
